--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -57,6 +57,33 @@
   </si>
   <si>
     <t>u32</t>
+  </si>
+  <si>
+    <t>物品初始化配置表</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>物品类型编号</t>
+  </si>
+  <si>
+    <t>物品枚举编号</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
+    <t>$ItemInitCfg</t>
+  </si>
+  <si>
+    <t>typeNum</t>
+  </si>
+  <si>
+    <t>enumNum</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -65,9 +92,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,10 +131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,11 +154,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,54 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,32 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,73 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,103 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +461,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -472,45 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +522,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,18 +1069,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -1109,6 +1137,236 @@
       </c>
       <c r="C8" s="1">
         <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>yineng</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0">
@@ -31,12 +32,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -84,6 +110,63 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>兑换物品配置表</t>
+  </si>
+  <si>
+    <t>奖品类型</t>
+  </si>
+  <si>
+    <t>兑换码</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>$AwardConvertCfg</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>lalala</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>hhhh</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>xiuxiu</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
   </si>
 </sst>
 </file>
@@ -91,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,12 +201,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -140,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,13 +306,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -168,86 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +550,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -487,80 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,16 +664,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,115 +682,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E26"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1369,6 +1452,131 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>500001</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>500001</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>500002</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>500001</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -100,6 +100,9 @@
     <t>初始数量</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>$ItemInitCfg</t>
   </si>
   <si>
@@ -112,6 +115,33 @@
     <t>count</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>小矿山</t>
+  </si>
+  <si>
+    <t>中矿山</t>
+  </si>
+  <si>
+    <t>大矿山</t>
+  </si>
+  <si>
+    <t>小锄头</t>
+  </si>
+  <si>
+    <t>中锄头</t>
+  </si>
+  <si>
+    <t>大锄头</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
     <t>兑换物品配置表</t>
   </si>
   <si>
@@ -134,12 +164,6 @@
   </si>
   <si>
     <t>state</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>str</t>
   </si>
   <si>
     <t>bool</t>
@@ -176,8 +200,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -201,6 +225,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,7 +246,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +292,71 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,98 +367,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,19 +377,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,31 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,127 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,11 +571,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,22 +625,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,11 +647,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1164,7 +1188,9 @@
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="32.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -1222,7 +1248,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,25 +1264,31 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1269,8 +1301,11 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1283,8 +1318,11 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1297,8 +1335,11 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1311,8 +1352,11 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -1325,8 +1369,11 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -1339,8 +1386,11 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1353,8 +1403,11 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -1366,6 +1419,9 @@
       </c>
       <c r="E20" s="1">
         <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1454,42 +1510,42 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1500,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -1517,13 +1573,13 @@
         <v>500001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1534,13 +1590,13 @@
         <v>500001</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -1551,13 +1607,13 @@
         <v>500002</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -1568,13 +1624,13 @@
         <v>500001</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -57,12 +57,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="B41" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -142,6 +165,24 @@
     <t>BTC</t>
   </si>
   <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>银券</t>
+  </si>
+  <si>
+    <t>金券</t>
+  </si>
+  <si>
+    <t>彩券</t>
+  </si>
+  <si>
     <t>兑换物品配置表</t>
   </si>
   <si>
@@ -191,6 +232,96 @@
   </si>
   <si>
     <t>!!!!!</t>
+  </si>
+  <si>
+    <t>奖章配置表</t>
+  </si>
+  <si>
+    <t>奖章类别</t>
+  </si>
+  <si>
+    <t>条件物品编号</t>
+  </si>
+  <si>
+    <t>条件要求数量</t>
+  </si>
+  <si>
+    <t>奖章描述</t>
+  </si>
+  <si>
+    <t>$MedalCfg</t>
+  </si>
+  <si>
+    <t>coinType</t>
+  </si>
+  <si>
+    <t>coinNum</t>
+  </si>
+  <si>
+    <t>穷人</t>
+  </si>
+  <si>
+    <t>孑然一身</t>
+  </si>
+  <si>
+    <t>家徒四壁</t>
+  </si>
+  <si>
+    <t>入不敷出</t>
+  </si>
+  <si>
+    <t>身无分文</t>
+  </si>
+  <si>
+    <t>囊中羞涩</t>
+  </si>
+  <si>
+    <t>中产</t>
+  </si>
+  <si>
+    <t>清贫乐道</t>
+  </si>
+  <si>
+    <t>饱食暖衣</t>
+  </si>
+  <si>
+    <t>安居乐业</t>
+  </si>
+  <si>
+    <t>丰衣足食</t>
+  </si>
+  <si>
+    <t>锦衣玉食</t>
+  </si>
+  <si>
+    <t>富人</t>
+  </si>
+  <si>
+    <t>荣华富贵</t>
+  </si>
+  <si>
+    <t>金玉满堂</t>
+  </si>
+  <si>
+    <t>家财万贯</t>
+  </si>
+  <si>
+    <t>富甲一方</t>
+  </si>
+  <si>
+    <t>富甲天下</t>
+  </si>
+  <si>
+    <t>偶然成就</t>
+  </si>
+  <si>
+    <t>鸿运当头</t>
+  </si>
+  <si>
+    <t>活体锦鲤</t>
+  </si>
+  <si>
+    <t>天选之子</t>
   </si>
 </sst>
 </file>
@@ -199,9 +330,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -225,7 +356,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,91 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +430,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -345,23 +460,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -377,31 +508,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,151 +658,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +699,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,13 +735,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,48 +791,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +819,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F35"/>
+  <dimension ref="A3:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1187,8 +1318,8 @@
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1424,7 +1555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -1437,8 +1568,11 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -1451,8 +1585,11 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -1465,8 +1602,11 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -1479,8 +1619,11 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="1">
         <v>11</v>
       </c>
@@ -1493,8 +1636,11 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="1">
         <v>12</v>
       </c>
@@ -1507,30 +1653,33 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -1539,10 +1688,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>17</v>
@@ -1559,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
@@ -1573,13 +1722,13 @@
         <v>500001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1590,13 +1739,13 @@
         <v>500001</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -1607,13 +1756,13 @@
         <v>500002</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -1624,13 +1773,376 @@
         <v>500001</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1">
+        <v>8001</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="1">
+        <v>8002</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1">
+        <v>8003</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E44" s="1">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="1">
+        <v>8004</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="1">
+        <v>8005</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="1">
+        <v>8006</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>500</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="1">
+        <v>8007</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="1">
+        <v>8008</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="1">
+        <v>8009</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="1">
+        <v>8010</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="1">
+        <v>8011</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="1">
+        <v>8012</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E53" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="1">
+        <v>8013</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="1">
+        <v>8014</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E55" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="1">
+        <v>8015</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="1">
+        <v>8016</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="1">
+        <v>8018</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -249,6 +249,9 @@
     <t>奖章描述</t>
   </si>
   <si>
+    <t>奖章描述(繁)</t>
+  </si>
+  <si>
     <t>$MedalCfg</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>coinNum</t>
   </si>
   <si>
+    <t>descHant</t>
+  </si>
+  <si>
     <t>穷人</t>
   </si>
   <si>
@@ -273,39 +279,69 @@
     <t>身无分文</t>
   </si>
   <si>
+    <t>身無分文</t>
+  </si>
+  <si>
     <t>囊中羞涩</t>
   </si>
   <si>
+    <t>囊中羞澀</t>
+  </si>
+  <si>
     <t>中产</t>
   </si>
   <si>
     <t>清贫乐道</t>
   </si>
   <si>
+    <t>清貧樂道</t>
+  </si>
+  <si>
     <t>饱食暖衣</t>
   </si>
   <si>
+    <t>飽食暖衣</t>
+  </si>
+  <si>
     <t>安居乐业</t>
   </si>
   <si>
+    <t>安居樂業</t>
+  </si>
+  <si>
     <t>丰衣足食</t>
   </si>
   <si>
+    <t>豐衣足食</t>
+  </si>
+  <si>
     <t>锦衣玉食</t>
   </si>
   <si>
+    <t>錦衣玉食</t>
+  </si>
+  <si>
     <t>富人</t>
   </si>
   <si>
     <t>荣华富贵</t>
   </si>
   <si>
+    <t>榮華富貴</t>
+  </si>
+  <si>
     <t>金玉满堂</t>
   </si>
   <si>
+    <t>金玉滿堂</t>
+  </si>
+  <si>
     <t>家财万贯</t>
   </si>
   <si>
+    <t>家財萬貫</t>
+  </si>
+  <si>
     <t>富甲一方</t>
   </si>
   <si>
@@ -318,10 +354,19 @@
     <t>鸿运当头</t>
   </si>
   <si>
+    <t>鴻運當頭</t>
+  </si>
+  <si>
     <t>活体锦鲤</t>
   </si>
   <si>
+    <t>活體錦鯉</t>
+  </si>
+  <si>
     <t>天选之子</t>
+  </si>
+  <si>
+    <t>天選之子</t>
   </si>
 </sst>
 </file>
@@ -329,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,15 +401,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +438,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,29 +490,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,64 +521,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,6 +535,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -508,187 +553,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,54 +744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,8 +765,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,10 +814,32 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -807,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,13 +1352,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F59"/>
+  <dimension ref="A3:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1321,7 +1366,8 @@
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="21.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -1782,7 +1828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1801,10 +1847,13 @@
       <c r="F39" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
@@ -1813,16 +1862,19 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1838,13 +1890,16 @@
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="1">
         <v>8001</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1">
         <v>6001</v>
@@ -1853,15 +1908,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
+        <v>60</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1">
         <v>8002</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1">
         <v>6001</v>
@@ -1870,15 +1928,18 @@
         <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
+        <v>61</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>8003</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
@@ -1887,15 +1948,18 @@
         <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+        <v>62</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>8004</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
@@ -1904,15 +1968,18 @@
         <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>63</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>8005</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
@@ -1921,15 +1988,18 @@
         <v>200</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>8006</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
@@ -1938,15 +2008,18 @@
         <v>500</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
+        <v>68</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>8007</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
@@ -1955,15 +2028,18 @@
         <v>1000</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>70</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>8008</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -1972,15 +2048,18 @@
         <v>2000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <v>8009</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -1989,15 +2068,18 @@
         <v>5000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>74</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <v>8010</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -2006,15 +2088,18 @@
         <v>10000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>76</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <v>8011</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -2023,15 +2108,18 @@
         <v>20000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <v>8012</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -2040,15 +2128,18 @@
         <v>50000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>81</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <v>8013</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -2057,15 +2148,18 @@
         <v>100000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>83</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <v>8014</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -2074,15 +2168,18 @@
         <v>500000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>85</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <v>8015</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -2091,15 +2188,18 @@
         <v>1000000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>86</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <v>8016</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1">
         <v>5001</v>
@@ -2108,15 +2208,18 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>88</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <v>8017</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1">
         <v>4001</v>
@@ -2125,15 +2228,18 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>90</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <v>8018</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1">
         <v>3001</v>
@@ -2142,7 +2248,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505"/>
+    <workbookView windowWidth="27780" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="B62" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -346,6 +369,12 @@
   </si>
   <si>
     <t>富甲天下</t>
+  </si>
+  <si>
+    <t>成就奖章配置表</t>
+  </si>
+  <si>
+    <t>$AchievementMedalCfg</t>
   </si>
   <si>
     <t>偶然成就</t>
@@ -374,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -401,63 +430,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,14 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,15 +474,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,14 +512,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -529,10 +519,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,6 +556,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -553,13 +582,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,169 +744,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,76 +776,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,9 +802,74 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,16 +893,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,115 +911,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1102,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1352,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G59"/>
+  <dimension ref="A3:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2194,64 +2223,130 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="1">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="1">
         <v>8016</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="1">
         <v>5001</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="1">
-        <v>8017</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="D64" s="1">
         <v>4001</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="1">
+      <c r="F64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1">
         <v>8018</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="1">
         <v>3001</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>93</v>
+      <c r="F65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="1">
+    <comment ref="B43" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>xiuxiu</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
   </si>
   <si>
     <t>test8</t>
@@ -329,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,25 +362,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,29 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +405,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -445,8 +420,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,44 +498,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -508,187 +514,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,20 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +753,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -773,32 +805,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,10 +813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +825,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F59"/>
+  <dimension ref="A3:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1767,10 +1773,10 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
-        <v>500001</v>
+        <v>500002</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>47</v>
@@ -1779,112 +1785,112 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>500002</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>500001</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1">
-        <v>8001</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6001</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1">
-        <v>8002</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="1">
-        <v>6001</v>
-      </c>
-      <c r="E43" s="1">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="1">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
       </c>
       <c r="E44" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>60</v>
@@ -1892,16 +1898,16 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="1">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
       </c>
       <c r="E45" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>61</v>
@@ -1909,16 +1915,16 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="1">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
       </c>
       <c r="E46" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>62</v>
@@ -1926,50 +1932,50 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="1">
-        <v>8006</v>
+        <v>8004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
       </c>
       <c r="E47" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="1">
-        <v>8007</v>
+        <v>8005</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
       </c>
       <c r="E48" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="1">
-        <v>8008</v>
+        <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
       </c>
       <c r="E49" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>66</v>
@@ -1977,16 +1983,16 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="1">
-        <v>8009</v>
+        <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
       </c>
       <c r="E50" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>67</v>
@@ -1994,16 +2000,16 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="1">
-        <v>8010</v>
+        <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
       </c>
       <c r="E51" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>68</v>
@@ -2011,50 +2017,50 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="1">
-        <v>8011</v>
+        <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
       </c>
       <c r="E52" s="1">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="1">
-        <v>8012</v>
+        <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
       </c>
       <c r="E53" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="1">
-        <v>8013</v>
+        <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
       </c>
       <c r="E54" s="1">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>72</v>
@@ -2062,16 +2068,16 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="1">
-        <v>8014</v>
+        <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
       </c>
       <c r="E55" s="1">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>73</v>
@@ -2079,16 +2085,16 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="1">
-        <v>8015</v>
+        <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
       </c>
       <c r="E56" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>74</v>
@@ -2096,53 +2102,87 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="1">
-        <v>8016</v>
+        <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5001</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="1">
-        <v>8017</v>
+        <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D58" s="1">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="1">
-        <v>8018</v>
+        <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D59" s="1">
-        <v>3001</v>
+        <v>5001</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4001</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="1">
+        <v>8018</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +438,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,14 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,62 +480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,6 +503,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -572,6 +526,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -582,187 +582,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +773,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,13 +809,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,30 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -859,17 +863,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,145 +881,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A3:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -80,12 +80,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="B67" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -264,6 +287,9 @@
     <t>coinNum</t>
   </si>
   <si>
+    <t>descHant</t>
+  </si>
+  <si>
     <t>穷人</t>
   </si>
   <si>
@@ -328,6 +354,9 @@
   </si>
   <si>
     <t>天选之子</t>
+  </si>
+  <si>
+    <t>$AchievementMedalCfg</t>
   </si>
 </sst>
 </file>
@@ -335,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -361,8 +390,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +422,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,6 +463,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,7 +490,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -443,40 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,9 +520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,25 +543,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,157 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,17 +737,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,21 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -762,22 +796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,145 +842,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1063,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1313,13 +1342,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F61"/>
+  <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1822,7 +1851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1841,8 +1870,11 @@
       <c r="F41" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -1861,8 +1893,11 @@
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,13 +1913,16 @@
       <c r="F43" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>8001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
@@ -1893,15 +1931,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+        <v>61</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>8002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
@@ -1910,15 +1951,18 @@
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>8003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
@@ -1927,15 +1971,18 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>63</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>8004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
@@ -1944,15 +1991,18 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
+        <v>64</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>8005</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
@@ -1961,15 +2011,18 @@
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>65</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -1978,15 +2031,18 @@
         <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>67</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -1995,15 +2051,18 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>68</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -2012,15 +2071,18 @@
         <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>69</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -2029,15 +2091,18 @@
         <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>70</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -2046,15 +2111,18 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>71</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -2063,15 +2131,18 @@
         <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -2080,15 +2151,18 @@
         <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>74</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -2097,15 +2171,18 @@
         <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>75</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1">
         <v>6001</v>
@@ -2114,15 +2191,18 @@
         <v>500000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>76</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1">
         <v>6001</v>
@@ -2131,15 +2211,18 @@
         <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>77</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1">
         <v>5001</v>
@@ -2148,15 +2231,18 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
+        <v>79</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="1">
         <v>8017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1">
         <v>4001</v>
@@ -2165,15 +2251,18 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
+        <v>80</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="1">
         <v>8018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1">
         <v>3001</v>
@@ -2182,7 +2271,136 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1">
+        <v>8016</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1">
+        <v>8018</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -80,12 +80,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="B67" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -195,7 +218,7 @@
     <t>状态</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>到期时间</t>
   </si>
   <si>
     <t>$AwardConvertCfg</t>
@@ -207,27 +230,21 @@
     <t>state</t>
   </si>
   <si>
+    <t>deadTime</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>test5</t>
   </si>
   <si>
-    <t>lalala</t>
-  </si>
-  <si>
     <t>test6</t>
   </si>
   <si>
-    <t>hhhh</t>
-  </si>
-  <si>
     <t>test7</t>
   </si>
   <si>
-    <t>xiuxiu</t>
-  </si>
-  <si>
     <t>test9</t>
   </si>
   <si>
@@ -237,9 +254,6 @@
     <t>test8</t>
   </si>
   <si>
-    <t>!!!!!</t>
-  </si>
-  <si>
     <t>奖章配置表</t>
   </si>
   <si>
@@ -264,6 +278,9 @@
     <t>coinNum</t>
   </si>
   <si>
+    <t>descHant</t>
+  </si>
+  <si>
     <t>穷人</t>
   </si>
   <si>
@@ -328,6 +345,9 @@
   </si>
   <si>
     <t>天选之子</t>
+  </si>
+  <si>
+    <t>$AchievementMedalCfg</t>
   </si>
 </sst>
 </file>
@@ -336,9 +356,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -362,13 +382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -382,23 +395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,9 +411,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,52 +511,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -484,22 +519,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,80 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,8 +746,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,149 +833,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +983,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,13 +1336,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F61"/>
+  <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1700,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1714,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
@@ -1728,13 +1751,13 @@
         <v>500001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>42</v>
+      <c r="F32" s="3">
+        <v>43475</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1750,8 +1773,8 @@
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>44</v>
+      <c r="F33" s="3">
+        <v>43476</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -1762,13 +1785,13 @@
         <v>500002</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>46</v>
+      <c r="F34" s="3">
+        <v>43477</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -1779,13 +1802,13 @@
         <v>500002</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>46</v>
+      <c r="F35" s="3">
+        <v>43478</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -1796,13 +1819,13 @@
         <v>500002</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>46</v>
+      <c r="F36" s="3">
+        <v>43479</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -1813,38 +1836,41 @@
         <v>500001</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F37" s="3">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
@@ -1853,16 +1879,19 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,13 +1907,16 @@
       <c r="F43" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>8001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
@@ -1893,15 +1925,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>8002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
@@ -1910,15 +1945,18 @@
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>8003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
@@ -1927,15 +1965,18 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>60</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>8004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
@@ -1944,15 +1985,18 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>8005</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
@@ -1961,15 +2005,18 @@
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>62</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -1978,15 +2025,18 @@
         <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>64</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -1995,15 +2045,18 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -2012,15 +2065,18 @@
         <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>66</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -2029,15 +2085,18 @@
         <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>67</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -2046,15 +2105,18 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>68</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -2063,15 +2125,18 @@
         <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>70</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -2080,15 +2145,18 @@
         <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>71</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -2097,15 +2165,18 @@
         <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>72</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>6001</v>
@@ -2114,15 +2185,18 @@
         <v>500000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>73</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" s="1">
         <v>6001</v>
@@ -2131,15 +2205,18 @@
         <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>74</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1">
         <v>5001</v>
@@ -2148,15 +2225,18 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
+        <v>76</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="1">
         <v>8017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1">
         <v>4001</v>
@@ -2165,15 +2245,18 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
+        <v>77</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="1">
         <v>8018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1">
         <v>3001</v>
@@ -2182,7 +2265,136 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1">
+        <v>8016</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1">
+        <v>8017</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1">
+        <v>8018</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -239,19 +239,37 @@
     <t>test5</t>
   </si>
   <si>
+    <t>2019.11.10</t>
+  </si>
+  <si>
     <t>test6</t>
   </si>
   <si>
+    <t>2019.11.11</t>
+  </si>
+  <si>
     <t>test7</t>
   </si>
   <si>
+    <t>2019.11.12</t>
+  </si>
+  <si>
     <t>test9</t>
   </si>
   <si>
+    <t>2019.11.13</t>
+  </si>
+  <si>
     <t>test10</t>
   </si>
   <si>
+    <t>2019.11.14</t>
+  </si>
+  <si>
     <t>test8</t>
+  </si>
+  <si>
+    <t>2019.11.15</t>
   </si>
   <si>
     <t>奖章配置表</t>
@@ -355,9 +373,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -388,60 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -458,22 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,16 +435,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +469,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,187 +552,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,30 +743,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,20 +761,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,17 +817,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1756,8 +1774,8 @@
       <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
-        <v>43475</v>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1768,13 +1786,13 @@
         <v>500001</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>43476</v>
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -1785,13 +1803,13 @@
         <v>500002</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="3">
-        <v>43477</v>
+      <c r="F34" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -1802,13 +1820,13 @@
         <v>500002</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
-        <v>43478</v>
+      <c r="F35" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -1819,13 +1837,13 @@
         <v>500002</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="3">
-        <v>43479</v>
+      <c r="F36" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -1836,41 +1854,41 @@
         <v>500001</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="3">
-        <v>43480</v>
+      <c r="F37" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
@@ -1879,16 +1897,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -1916,7 +1934,7 @@
         <v>8001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
@@ -1925,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -1936,7 +1954,7 @@
         <v>8002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
@@ -1945,10 +1963,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -1956,7 +1974,7 @@
         <v>8003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
@@ -1965,10 +1983,10 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -1976,7 +1994,7 @@
         <v>8004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
@@ -1985,10 +2003,10 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -1996,7 +2014,7 @@
         <v>8005</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
@@ -2005,10 +2023,10 @@
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -2016,7 +2034,7 @@
         <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -2025,10 +2043,10 @@
         <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -2036,7 +2054,7 @@
         <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -2045,10 +2063,10 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -2056,7 +2074,7 @@
         <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -2065,10 +2083,10 @@
         <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -2076,7 +2094,7 @@
         <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -2085,10 +2103,10 @@
         <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -2096,7 +2114,7 @@
         <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -2105,10 +2123,10 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -2116,7 +2134,7 @@
         <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -2125,10 +2143,10 @@
         <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -2136,7 +2154,7 @@
         <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -2145,10 +2163,10 @@
         <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -2156,7 +2174,7 @@
         <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -2165,10 +2183,10 @@
         <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -2176,7 +2194,7 @@
         <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1">
         <v>6001</v>
@@ -2185,10 +2203,10 @@
         <v>500000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -2196,7 +2214,7 @@
         <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1">
         <v>6001</v>
@@ -2205,10 +2223,10 @@
         <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -2216,7 +2234,7 @@
         <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1">
         <v>5001</v>
@@ -2225,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -2236,7 +2254,7 @@
         <v>8017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1">
         <v>4001</v>
@@ -2245,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -2256,7 +2274,7 @@
         <v>8018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D61" s="1">
         <v>3001</v>
@@ -2265,38 +2283,38 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -2305,16 +2323,16 @@
         <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -2342,7 +2360,7 @@
         <v>8016</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D68" s="1">
         <v>5001</v>
@@ -2351,10 +2369,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -2362,7 +2380,7 @@
         <v>8017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1">
         <v>4001</v>
@@ -2371,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -2382,7 +2400,7 @@
         <v>8018</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D70" s="1">
         <v>3001</v>
@@ -2391,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -299,7 +299,7 @@
     <t>descHant</t>
   </si>
   <si>
-    <t>穷人</t>
+    <t>平民</t>
   </si>
   <si>
     <t>孑然一身</t>
@@ -406,6 +406,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -421,31 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,46 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,16 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +503,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -552,37 +552,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,49 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,67 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,32 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +770,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -806,31 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,6 +817,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1356,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -41,19 +41,6 @@
             <charset val="134"/>
           </rPr>
           <t>#[primary=true]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">#[primary=true]
-</t>
         </r>
       </text>
     </comment>
@@ -108,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -204,72 +191,6 @@
   </si>
   <si>
     <t>彩券</t>
-  </si>
-  <si>
-    <t>兑换物品配置表</t>
-  </si>
-  <si>
-    <t>奖品类型</t>
-  </si>
-  <si>
-    <t>兑换码</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>到期时间</t>
-  </si>
-  <si>
-    <t>$AwardConvertCfg</t>
-  </si>
-  <si>
-    <t>convert</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>deadTime</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>2019.11.10</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>2019.11.11</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>2019.11.12</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>2019.11.13</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>2019.11.14</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>2019.11.15</t>
   </si>
   <si>
     <t>奖章配置表</t>
@@ -374,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -399,23 +320,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,88 +343,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,10 +371,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,6 +455,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -558,115 +479,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,61 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +678,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,17 +727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,15 +759,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -851,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1704,191 +1625,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>500001</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>500001</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1">
-        <v>500002</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1">
-        <v>500002</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
-        <v>500002</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>500001</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="32" spans="6:6">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="3"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
@@ -1897,16 +1677,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -1934,7 +1714,7 @@
         <v>8001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>6001</v>
@@ -1943,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -1954,7 +1734,7 @@
         <v>8002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>6001</v>
@@ -1963,10 +1743,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -1974,7 +1754,7 @@
         <v>8003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
         <v>6001</v>
@@ -1983,10 +1763,10 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -1994,7 +1774,7 @@
         <v>8004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>6001</v>
@@ -2003,10 +1783,10 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -2014,7 +1794,7 @@
         <v>8005</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1">
         <v>6001</v>
@@ -2023,10 +1803,10 @@
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -2034,7 +1814,7 @@
         <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -2043,10 +1823,10 @@
         <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -2054,7 +1834,7 @@
         <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -2063,10 +1843,10 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -2074,7 +1854,7 @@
         <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -2083,10 +1863,10 @@
         <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -2094,7 +1874,7 @@
         <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -2103,10 +1883,10 @@
         <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -2114,7 +1894,7 @@
         <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -2123,10 +1903,10 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -2134,7 +1914,7 @@
         <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -2143,10 +1923,10 @@
         <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -2154,7 +1934,7 @@
         <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -2163,10 +1943,10 @@
         <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -2174,7 +1954,7 @@
         <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -2183,10 +1963,10 @@
         <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -2194,7 +1974,7 @@
         <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>6001</v>
@@ -2203,10 +1983,10 @@
         <v>500000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -2214,7 +1994,7 @@
         <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1">
         <v>6001</v>
@@ -2223,10 +2003,10 @@
         <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -2234,7 +2014,7 @@
         <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1">
         <v>5001</v>
@@ -2243,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -2254,7 +2034,7 @@
         <v>8017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1">
         <v>4001</v>
@@ -2263,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -2274,7 +2054,7 @@
         <v>8018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1">
         <v>3001</v>
@@ -2283,38 +2063,38 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -2323,16 +2103,16 @@
         <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -2360,7 +2140,7 @@
         <v>8016</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D68" s="1">
         <v>5001</v>
@@ -2369,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -2380,7 +2160,7 @@
         <v>8017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D69" s="1">
         <v>4001</v>
@@ -2389,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -2400,7 +2180,7 @@
         <v>8018</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D70" s="1">
         <v>3001</v>
@@ -2409,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -374,9 +374,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -407,32 +407,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,9 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +438,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,6 +473,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -490,23 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,17 +529,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -552,48 +552,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,133 +672,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,39 +743,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,12 +785,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -843,6 +823,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1357,7 @@
   <dimension ref="A3:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1940,7 +1940,7 @@
         <v>6001</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>64</v>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -294,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -320,9 +320,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,74 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -426,16 +372,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +440,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -473,25 +473,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,120 +654,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +664,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -678,6 +687,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,40 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1720,7 +1720,7 @@
         <v>6001</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>42</v>

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -296,10 +296,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +321,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +349,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,125 +464,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -473,187 +489,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +701,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -705,65 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +1012,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1277,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1328,7 +1344,7 @@
         <v>1001</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1336,7 +1352,7 @@
         <v>1002</v>
       </c>
       <c r="C7" s="1">
-        <v>300</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1344,7 +1360,7 @@
         <v>1003</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1KuPay_wallet\wallet_game\src\earn\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -20,19 +25,19 @@
     <author>yineng</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>#[primary=true]</t>
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1">
+    <comment ref="B12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="1">
+    <comment ref="B43" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="1">
+    <comment ref="B67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
   <si>
     <t>矿山血量配置表配置表</t>
   </si>
@@ -223,27 +228,12 @@
     <t>平民</t>
   </si>
   <si>
-    <t>孑然一身</t>
-  </si>
-  <si>
-    <t>家徒四壁</t>
-  </si>
-  <si>
-    <t>入不敷出</t>
-  </si>
-  <si>
     <t>身无分文</t>
   </si>
   <si>
-    <t>囊中羞涩</t>
-  </si>
-  <si>
     <t>中产</t>
   </si>
   <si>
-    <t>清贫乐道</t>
-  </si>
-  <si>
     <t>饱食暖衣</t>
   </si>
   <si>
@@ -287,19 +277,32 @@
   </si>
   <si>
     <t>$AchievementMedalCfg</t>
+  </si>
+  <si>
+    <t>勉强度日</t>
+  </si>
+  <si>
+    <t>布衣蔬食</t>
+  </si>
+  <si>
+    <t>小有所得</t>
+  </si>
+  <si>
+    <t>略有盈余</t>
+  </si>
+  <si>
+    <t>小康之家</t>
+  </si>
+  <si>
+    <t>小康之家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,153 +323,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -479,202 +338,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -682,251 +362,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,61 +382,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1285,19 +679,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1308,7 +702,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1339,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1347,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
@@ -1355,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
@@ -1363,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1437,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1454,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1471,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -1488,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -1505,7 +899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -1522,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -1539,7 +933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -1556,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -1573,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>9</v>
       </c>
@@ -1590,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -1607,7 +1001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>11</v>
       </c>
@@ -1624,7 +1018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>12</v>
       </c>
@@ -1641,25 +1035,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F37" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1705,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
         <v>8001</v>
       </c>
@@ -1745,7 +1139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <v>8002</v>
       </c>
@@ -1759,13 +1153,13 @@
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <v>8003</v>
       </c>
@@ -1779,13 +1173,13 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <v>8004</v>
       </c>
@@ -1799,13 +1193,13 @@
         <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <v>8005</v>
       </c>
@@ -1819,18 +1213,18 @@
         <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <v>8006</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>6001</v>
@@ -1839,18 +1233,18 @@
         <v>500</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
         <v>8007</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1">
         <v>6001</v>
@@ -1859,18 +1253,18 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <v>8008</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D51" s="1">
         <v>6001</v>
@@ -1879,18 +1273,18 @@
         <v>2000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <v>8009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1">
         <v>6001</v>
@@ -1899,18 +1293,18 @@
         <v>5000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <v>8010</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D53" s="1">
         <v>6001</v>
@@ -1919,18 +1313,18 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <v>8011</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>6001</v>
@@ -1939,18 +1333,18 @@
         <v>20000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <v>8012</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1">
         <v>6001</v>
@@ -1959,18 +1353,18 @@
         <v>50000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>8013</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D56" s="1">
         <v>6001</v>
@@ -1979,18 +1373,18 @@
         <v>100000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>8014</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1">
         <v>6001</v>
@@ -1999,18 +1393,18 @@
         <v>500000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>8015</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1">
         <v>6001</v>
@@ -2019,18 +1413,18 @@
         <v>1000000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <v>8016</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1">
         <v>5001</v>
@@ -2039,18 +1433,18 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <v>8017</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D60" s="1">
         <v>4001</v>
@@ -2059,18 +1453,18 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="1">
         <v>8018</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1">
         <v>3001</v>
@@ -2079,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
@@ -2108,9 +1502,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -2131,7 +1525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2151,12 +1545,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <v>8016</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1">
         <v>5001</v>
@@ -2165,18 +1559,18 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B69" s="1">
         <v>8017</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1">
         <v>4001</v>
@@ -2185,18 +1579,18 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B70" s="1">
         <v>8018</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D70" s="1">
         <v>3001</v>
@@ -2205,16 +1599,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/earn/xlsx/item.xlsx
+++ b/src/earn/xlsx/item.xlsx
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,7 +1130,7 @@
         <v>6001</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>42</v>
@@ -1150,7 +1150,7 @@
         <v>6001</v>
       </c>
       <c r="E45" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>59</v>
@@ -1170,7 +1170,7 @@
         <v>6001</v>
       </c>
       <c r="E46" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>60</v>
@@ -1190,7 +1190,7 @@
         <v>6001</v>
       </c>
       <c r="E47" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>61</v>
@@ -1210,7 +1210,7 @@
         <v>6001</v>
       </c>
       <c r="E48" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>62</v>
@@ -1230,7 +1230,7 @@
         <v>6001</v>
       </c>
       <c r="E49" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>44</v>
@@ -1250,7 +1250,7 @@
         <v>6001</v>
       </c>
       <c r="E50" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>45</v>
@@ -1270,7 +1270,7 @@
         <v>6001</v>
       </c>
       <c r="E51" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>63</v>
@@ -1290,7 +1290,7 @@
         <v>6001</v>
       </c>
       <c r="E52" s="1">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>46</v>
@@ -1427,10 +1427,10 @@
         <v>54</v>
       </c>
       <c r="D59" s="1">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -1447,10 +1447,10 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>56</v>
@@ -1467,10 +1467,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="1">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>57</v>
@@ -1553,10 +1553,10 @@
         <v>54</v>
       </c>
       <c r="D68" s="1">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>55</v>
@@ -1573,10 +1573,10 @@
         <v>54</v>
       </c>
       <c r="D69" s="1">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>56</v>
@@ -1593,10 +1593,10 @@
         <v>54</v>
       </c>
       <c r="D70" s="1">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>57</v>
